--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agrn-Musk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Agrn-Musk.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H2">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I2">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J2">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.322404</v>
+        <v>0.3676493333333333</v>
       </c>
       <c r="N2">
-        <v>0.9672120000000001</v>
+        <v>1.102948</v>
       </c>
       <c r="O2">
-        <v>0.02572530044727476</v>
+        <v>0.02558020875176611</v>
       </c>
       <c r="P2">
-        <v>0.02572530044727475</v>
+        <v>0.02558020875176611</v>
       </c>
       <c r="Q2">
-        <v>10.8948398567</v>
+        <v>14.09218142328578</v>
       </c>
       <c r="R2">
-        <v>98.05355871030001</v>
+        <v>126.829632809572</v>
       </c>
       <c r="S2">
-        <v>0.01513327460813805</v>
+        <v>0.01360323474516872</v>
       </c>
       <c r="T2">
-        <v>0.01513327460813805</v>
+        <v>0.01360323474516872</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H3">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I3">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J3">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>10.938638</v>
       </c>
       <c r="O3">
-        <v>0.2909390588970946</v>
+        <v>0.2536952272455287</v>
       </c>
       <c r="P3">
-        <v>0.2909390588970946</v>
+        <v>0.2536952272455287</v>
       </c>
       <c r="Q3">
-        <v>123.2146719234389</v>
+        <v>139.7611412502202</v>
       </c>
       <c r="R3">
-        <v>1108.93204731095</v>
+        <v>1257.850271251982</v>
       </c>
       <c r="S3">
-        <v>0.1711490476679507</v>
+        <v>0.1349119455372537</v>
       </c>
       <c r="T3">
-        <v>0.1711490476679507</v>
+        <v>0.1349119455372537</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H4">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I4">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J4">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>8.504941333333333</v>
+        <v>0.032567</v>
       </c>
       <c r="N4">
-        <v>25.514824</v>
+        <v>0.097701</v>
       </c>
       <c r="O4">
-        <v>0.6786273467030359</v>
+        <v>0.002265938172294887</v>
       </c>
       <c r="P4">
-        <v>0.6786273467030358</v>
+        <v>0.002265938172294887</v>
       </c>
       <c r="Q4">
-        <v>287.4033008811778</v>
+        <v>1.248309274087667</v>
       </c>
       <c r="R4">
-        <v>2586.6297079306</v>
+        <v>11.234783466789</v>
       </c>
       <c r="S4">
-        <v>0.399212208047782</v>
+        <v>0.001204997550054698</v>
       </c>
       <c r="T4">
-        <v>0.399212208047782</v>
+        <v>0.001204997550054698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.79250833333334</v>
+        <v>38.33049633333334</v>
       </c>
       <c r="H5">
-        <v>101.377525</v>
+        <v>114.991489</v>
       </c>
       <c r="I5">
-        <v>0.5882642513409871</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="J5">
-        <v>0.5882642513409873</v>
+        <v>0.5317874798120843</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.059007</v>
+        <v>10.32598433333333</v>
       </c>
       <c r="N5">
-        <v>0.177021</v>
+        <v>30.977953</v>
       </c>
       <c r="O5">
-        <v>0.004708293952594701</v>
+        <v>0.7184586258304102</v>
       </c>
       <c r="P5">
-        <v>0.0047082939525947</v>
+        <v>0.7184586258304102</v>
       </c>
       <c r="Q5">
-        <v>1.993994539225</v>
+        <v>395.8001046268908</v>
       </c>
       <c r="R5">
-        <v>17.945950853025</v>
+        <v>3562.200941642017</v>
       </c>
       <c r="S5">
-        <v>0.002769721017116419</v>
+        <v>0.3820673019796071</v>
       </c>
       <c r="T5">
-        <v>0.002769721017116419</v>
+        <v>0.3820673019796071</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>44.830572</v>
       </c>
       <c r="I6">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J6">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.322404</v>
+        <v>0.3676493333333333</v>
       </c>
       <c r="N6">
-        <v>0.9672120000000001</v>
+        <v>1.102948</v>
       </c>
       <c r="O6">
-        <v>0.02572530044727476</v>
+        <v>0.02558020875176611</v>
       </c>
       <c r="P6">
-        <v>0.02572530044727475</v>
+        <v>0.02558020875176611</v>
       </c>
       <c r="Q6">
-        <v>4.817851911696001</v>
+        <v>5.493976636250667</v>
       </c>
       <c r="R6">
-        <v>43.36066720526401</v>
+        <v>49.445789726256</v>
       </c>
       <c r="S6">
-        <v>0.006692147563435826</v>
+        <v>0.005303355926421548</v>
       </c>
       <c r="T6">
-        <v>0.006692147563435826</v>
+        <v>0.005303355926421548</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>44.830572</v>
       </c>
       <c r="I7">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J7">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>10.938638</v>
       </c>
       <c r="O7">
-        <v>0.2909390588970946</v>
+        <v>0.2536952272455287</v>
       </c>
       <c r="P7">
-        <v>0.2909390588970946</v>
+        <v>0.2536952272455287</v>
       </c>
       <c r="Q7">
         <v>54.48726649343735</v>
@@ -886,10 +886,10 @@
         <v>490.3853984409361</v>
       </c>
       <c r="S7">
-        <v>0.07568452380554268</v>
+        <v>0.05259675947032857</v>
       </c>
       <c r="T7">
-        <v>0.07568452380554268</v>
+        <v>0.05259675947032857</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>44.830572</v>
       </c>
       <c r="I8">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J8">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>8.504941333333333</v>
+        <v>0.032567</v>
       </c>
       <c r="N8">
-        <v>25.514824</v>
+        <v>0.097701</v>
       </c>
       <c r="O8">
-        <v>0.6786273467030359</v>
+        <v>0.002265938172294887</v>
       </c>
       <c r="P8">
-        <v>0.6786273467030358</v>
+        <v>0.002265938172294887</v>
       </c>
       <c r="Q8">
-        <v>127.0937949332587</v>
+        <v>0.4866657461080001</v>
       </c>
       <c r="R8">
-        <v>1143.844154399328</v>
+        <v>4.379991714972</v>
       </c>
       <c r="S8">
-        <v>0.1765372713149692</v>
+        <v>0.0004697802411059376</v>
       </c>
       <c r="T8">
-        <v>0.1765372713149692</v>
+        <v>0.0004697802411059376</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>44.830572</v>
       </c>
       <c r="I9">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="J9">
-        <v>0.260138752398702</v>
+        <v>0.2073226210890634</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.059007</v>
+        <v>10.32598433333333</v>
       </c>
       <c r="N9">
-        <v>0.177021</v>
+        <v>30.977953</v>
       </c>
       <c r="O9">
-        <v>0.004708293952594701</v>
+        <v>0.7184586258304102</v>
       </c>
       <c r="P9">
-        <v>0.0047082939525947</v>
+        <v>0.7184586258304102</v>
       </c>
       <c r="Q9">
-        <v>0.8817725206680002</v>
+        <v>154.3065947087907</v>
       </c>
       <c r="R9">
-        <v>7.935952686012001</v>
+        <v>1388.759352379116</v>
       </c>
       <c r="S9">
-        <v>0.001224809714754339</v>
+        <v>0.1489527254512073</v>
       </c>
       <c r="T9">
-        <v>0.001224809714754339</v>
+        <v>0.1489527254512073</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H10">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I10">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J10">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.322404</v>
+        <v>0.3676493333333333</v>
       </c>
       <c r="N10">
-        <v>0.9672120000000001</v>
+        <v>1.102948</v>
       </c>
       <c r="O10">
-        <v>0.02572530044727476</v>
+        <v>0.02558020875176611</v>
       </c>
       <c r="P10">
-        <v>0.02572530044727475</v>
+        <v>0.02558020875176611</v>
       </c>
       <c r="Q10">
-        <v>0.474959876996</v>
+        <v>3.002615512340888</v>
       </c>
       <c r="R10">
-        <v>4.274638892964</v>
+        <v>27.023539611068</v>
       </c>
       <c r="S10">
-        <v>0.0006597341806734054</v>
+        <v>0.002898435837361974</v>
       </c>
       <c r="T10">
-        <v>0.0006597341806734054</v>
+        <v>0.002898435837361974</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H11">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I11">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J11">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>10.938638</v>
       </c>
       <c r="O11">
-        <v>0.2909390588970946</v>
+        <v>0.2536952272455287</v>
       </c>
       <c r="P11">
-        <v>0.2909390588970946</v>
+        <v>0.2536952272455287</v>
       </c>
       <c r="Q11">
-        <v>5.371536084109556</v>
+        <v>29.77885099087311</v>
       </c>
       <c r="R11">
-        <v>48.343824756986</v>
+        <v>268.009658917858</v>
       </c>
       <c r="S11">
-        <v>0.007461232262020092</v>
+        <v>0.02874563478163024</v>
       </c>
       <c r="T11">
-        <v>0.007461232262020093</v>
+        <v>0.02874563478163025</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H12">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I12">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J12">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>8.504941333333333</v>
+        <v>0.032567</v>
       </c>
       <c r="N12">
-        <v>25.514824</v>
+        <v>0.097701</v>
       </c>
       <c r="O12">
-        <v>0.6786273467030359</v>
+        <v>0.002265938172294887</v>
       </c>
       <c r="P12">
-        <v>0.6786273467030358</v>
+        <v>0.002265938172294887</v>
       </c>
       <c r="Q12">
-        <v>12.52932931830311</v>
+        <v>0.2659767624323333</v>
       </c>
       <c r="R12">
-        <v>112.763963864728</v>
+        <v>2.393790861891</v>
       </c>
       <c r="S12">
-        <v>0.01740363178565417</v>
+        <v>0.0002567483505533372</v>
       </c>
       <c r="T12">
-        <v>0.01740363178565417</v>
+        <v>0.0002567483505533373</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.473182333333333</v>
+        <v>8.167063666666666</v>
       </c>
       <c r="H13">
-        <v>4.419547</v>
+        <v>24.501191</v>
       </c>
       <c r="I13">
-        <v>0.02564534404663464</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="J13">
-        <v>0.02564534404663465</v>
+        <v>0.1133077476219524</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.059007</v>
+        <v>10.32598433333333</v>
       </c>
       <c r="N13">
-        <v>0.177021</v>
+        <v>30.977953</v>
       </c>
       <c r="O13">
-        <v>0.004708293952594701</v>
+        <v>0.7184586258304102</v>
       </c>
       <c r="P13">
-        <v>0.0047082939525947</v>
+        <v>0.7184586258304102</v>
       </c>
       <c r="Q13">
-        <v>0.08692806994299999</v>
+        <v>84.33297147133587</v>
       </c>
       <c r="R13">
-        <v>0.782352629487</v>
+        <v>758.9967432420229</v>
       </c>
       <c r="S13">
-        <v>0.0001207458182869804</v>
+        <v>0.08140692865240688</v>
       </c>
       <c r="T13">
-        <v>0.0001207458182869804</v>
+        <v>0.08140692865240688</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H14">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I14">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J14">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.322404</v>
+        <v>0.3676493333333333</v>
       </c>
       <c r="N14">
-        <v>0.9672120000000001</v>
+        <v>1.102948</v>
       </c>
       <c r="O14">
-        <v>0.02572530044727476</v>
+        <v>0.02558020875176611</v>
       </c>
       <c r="P14">
-        <v>0.02572530044727475</v>
+        <v>0.02558020875176611</v>
       </c>
       <c r="Q14">
-        <v>1.468585469504</v>
+        <v>2.144958980848445</v>
       </c>
       <c r="R14">
-        <v>13.217269225536</v>
+        <v>19.304630827636</v>
       </c>
       <c r="S14">
-        <v>0.002039911323878521</v>
+        <v>0.002070536821717694</v>
       </c>
       <c r="T14">
-        <v>0.002039911323878521</v>
+        <v>0.002070536821717694</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H15">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I15">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J15">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>10.938638</v>
       </c>
       <c r="O15">
-        <v>0.2909390588970946</v>
+        <v>0.2536952272455287</v>
       </c>
       <c r="P15">
-        <v>0.2909390588970946</v>
+        <v>0.2536952272455287</v>
       </c>
       <c r="Q15">
-        <v>16.60889734925156</v>
+        <v>21.27292475832956</v>
       </c>
       <c r="R15">
-        <v>149.480076143264</v>
+        <v>191.456322824966</v>
       </c>
       <c r="S15">
-        <v>0.02307027986005953</v>
+        <v>0.02053483279215375</v>
       </c>
       <c r="T15">
-        <v>0.02307027986005953</v>
+        <v>0.02053483279215375</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H16">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I16">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J16">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>8.504941333333333</v>
+        <v>0.032567</v>
       </c>
       <c r="N16">
-        <v>25.514824</v>
+        <v>0.097701</v>
       </c>
       <c r="O16">
-        <v>0.6786273467030359</v>
+        <v>0.002265938172294887</v>
       </c>
       <c r="P16">
-        <v>0.6786273467030358</v>
+        <v>0.002265938172294887</v>
       </c>
       <c r="Q16">
-        <v>38.74093764691911</v>
+        <v>0.1900040957396667</v>
       </c>
       <c r="R16">
-        <v>348.668438822272</v>
+        <v>1.710036861657</v>
       </c>
       <c r="S16">
-        <v>0.05381237867640958</v>
+        <v>0.0001834116549634619</v>
       </c>
       <c r="T16">
-        <v>0.05381237867640958</v>
+        <v>0.0001834116549634619</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.555109333333333</v>
+        <v>5.834252333333334</v>
       </c>
       <c r="H17">
-        <v>13.665328</v>
+        <v>17.502757</v>
       </c>
       <c r="I17">
-        <v>0.07929591835319542</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="J17">
-        <v>0.07929591835319544</v>
+        <v>0.08094292121735479</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.059007</v>
+        <v>10.32598433333333</v>
       </c>
       <c r="N17">
-        <v>0.177021</v>
+        <v>30.977953</v>
       </c>
       <c r="O17">
-        <v>0.004708293952594701</v>
+        <v>0.7184586258304102</v>
       </c>
       <c r="P17">
-        <v>0.0047082939525947</v>
+        <v>0.7184586258304102</v>
       </c>
       <c r="Q17">
-        <v>0.268783336432</v>
+        <v>60.24439819071345</v>
       </c>
       <c r="R17">
-        <v>2.419050027888</v>
+        <v>542.1995837164211</v>
       </c>
       <c r="S17">
-        <v>0.0003733484928477931</v>
+        <v>0.05815413994851987</v>
       </c>
       <c r="T17">
-        <v>0.0003733484928477931</v>
+        <v>0.05815413994851987</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,46 +1532,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H18">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I18">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J18">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.322404</v>
+        <v>0.3676493333333333</v>
       </c>
       <c r="N18">
-        <v>0.9672120000000001</v>
+        <v>1.102948</v>
       </c>
       <c r="O18">
-        <v>0.02572530044727476</v>
+        <v>0.02558020875176611</v>
       </c>
       <c r="P18">
-        <v>0.02572530044727475</v>
+        <v>0.02558020875176611</v>
       </c>
       <c r="Q18">
-        <v>0.864078936716</v>
+        <v>1.765916194675111</v>
       </c>
       <c r="R18">
-        <v>7.776710430444</v>
+        <v>15.893245752076</v>
       </c>
       <c r="S18">
-        <v>0.001200232771148959</v>
+        <v>0.00170464542109617</v>
       </c>
       <c r="T18">
-        <v>0.001200232771148959</v>
+        <v>0.00170464542109617</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H19">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I19">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J19">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>10.938638</v>
       </c>
       <c r="O19">
-        <v>0.2909390588970946</v>
+        <v>0.2536952272455287</v>
       </c>
       <c r="P19">
-        <v>0.2909390588970946</v>
+        <v>0.2536952272455287</v>
       </c>
       <c r="Q19">
-        <v>9.772259537889555</v>
+        <v>17.51371596112289</v>
       </c>
       <c r="R19">
-        <v>87.95033584100599</v>
+        <v>157.623443650106</v>
       </c>
       <c r="S19">
-        <v>0.01357397530152159</v>
+        <v>0.01690605466416238</v>
       </c>
       <c r="T19">
-        <v>0.01357397530152159</v>
+        <v>0.01690605466416239</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H20">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I20">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J20">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>8.504941333333333</v>
+        <v>0.032567</v>
       </c>
       <c r="N20">
-        <v>25.514824</v>
+        <v>0.097701</v>
       </c>
       <c r="O20">
-        <v>0.6786273467030359</v>
+        <v>0.002265938172294887</v>
       </c>
       <c r="P20">
-        <v>0.6786273467030358</v>
+        <v>0.002265938172294887</v>
       </c>
       <c r="Q20">
-        <v>22.79419816174311</v>
+        <v>0.1564278444096667</v>
       </c>
       <c r="R20">
-        <v>205.147783455688</v>
+        <v>1.407850599687</v>
       </c>
       <c r="S20">
-        <v>0.03166185687822107</v>
+        <v>0.0001510003756174515</v>
       </c>
       <c r="T20">
-        <v>0.03166185687822107</v>
+        <v>0.0001510003756174515</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.680112333333333</v>
+        <v>4.803262333333334</v>
       </c>
       <c r="H21">
-        <v>8.040336999999999</v>
+        <v>14.409787</v>
       </c>
       <c r="I21">
-        <v>0.04665573386048079</v>
+        <v>0.06663923025954499</v>
       </c>
       <c r="J21">
-        <v>0.0466557338604808</v>
+        <v>0.066639230259545</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.059007</v>
+        <v>10.32598433333333</v>
       </c>
       <c r="N21">
-        <v>0.177021</v>
+        <v>30.977953</v>
       </c>
       <c r="O21">
-        <v>0.004708293952594701</v>
+        <v>0.7184586258304102</v>
       </c>
       <c r="P21">
-        <v>0.0047082939525947</v>
+        <v>0.7184586258304102</v>
       </c>
       <c r="Q21">
-        <v>0.158145388453</v>
+        <v>49.59841160289011</v>
       </c>
       <c r="R21">
-        <v>1.423308496077</v>
+        <v>446.385704426011</v>
       </c>
       <c r="S21">
-        <v>0.0002196689095891695</v>
+        <v>0.04787752979866898</v>
       </c>
       <c r="T21">
-        <v>0.0002196689095891695</v>
+        <v>0.04787752979866899</v>
       </c>
     </row>
   </sheetData>
